--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -30,6 +30,24 @@
   </si>
   <si>
     <t>is_active</t>
+  </si>
+  <si>
+    <t>mike</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -365,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,6 +408,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -32,22 +35,31 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>mike</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>np</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>hey</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>username1</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>job1</t>
+  </si>
+  <si>
+    <t>interests1</t>
+  </si>
+  <si>
+    <t>username2</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>job2</t>
+  </si>
+  <si>
+    <t>interests2</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,7 +403,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,38 +419,50 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="b">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="b">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="b">
         <v>1</v>
       </c>
     </row>
